--- a/pred_ohlcv/54_21/2019-10-29 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 KNC ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-71898.56640000001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-71898.56640000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-71897.56640000001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-66994.06840000002</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-68349.79090000002</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-68348.79090000002</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-68348.79090000002</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-51034.97750000002</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-51034.97750000002</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-51034.97750000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-49324.47278301889</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-54214.71448301889</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-54214.71448301889</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-49811.52140000002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-47011.52140000002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-51756.83560000002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-51756.83560000002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-49856.67240000002</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-45828.15870000002</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-50940.72860000002</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-52071.72110000002</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-56613.35570000001</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-56603.028685782</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-55962.697085782</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-55962.697085782</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-56944.948385782</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-52737.017485782</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-52846.261985782</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 KNC ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-68348.79090000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-51034.97750000002</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-51034.97750000002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-49324.47278301889</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-54214.71448301889</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-54214.71448301889</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-54183.03310000002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-49811.52140000002</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-47011.52140000002</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-51756.83560000002</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-51756.83560000002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-51526.83560000002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-53476.83560000002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-51876.83560000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-51876.83560000002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-44227.63740000002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-44227.63740000002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-44237.18280000002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-44034.85120000003</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-45516.85120000003</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-49856.67240000002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-45828.15870000002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-45828.15870000002</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-50940.72860000002</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-50940.72860000002</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-56603.028685782</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-55784.697085782</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-56944.948385782</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-51468.633485782</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-52737.017485782</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-52846.261985782</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-61274.639585782</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-61178.68338578199</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-57439.03998578199</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-57439.03998578199</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
